--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample02/Sample-02.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample02/Sample-02.xlsx
@@ -261,20 +261,20 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="xwpztwv4" xfId="1"/>
-    <cellStyle name="xwpztwv4_Alternate" xfId="2"/>
-    <cellStyle name="x53isp2h" xfId="3"/>
-    <cellStyle name="x53isp2h_Alternate" xfId="4"/>
-    <cellStyle name="gd3pxjda" xfId="5"/>
-    <cellStyle name="gd3pxjda_Alternate" xfId="6"/>
-    <cellStyle name="5rv0wr2j" xfId="7"/>
-    <cellStyle name="5rv0wr2j_Alternate" xfId="8"/>
+    <cellStyle name="og2s05uf" xfId="1"/>
+    <cellStyle name="og2s05uf_Alternate" xfId="2"/>
+    <cellStyle name="ag0chtbn" xfId="3"/>
+    <cellStyle name="ag0chtbn_Alternate" xfId="4"/>
+    <cellStyle name="acgsj1m4" xfId="5"/>
+    <cellStyle name="acgsj1m4_Alternate" xfId="6"/>
+    <cellStyle name="kfxmng1e" xfId="7"/>
+    <cellStyle name="kfxmng1e_Alternate" xfId="8"/>
     <cellStyle name="LocalHeader-1" xfId="9"/>
     <cellStyle name="LocalHeader-1_Alternate" xfId="10"/>
-    <cellStyle name="mersstif" xfId="11"/>
-    <cellStyle name="mersstif_Alternate" xfId="12"/>
-    <cellStyle name="kuwsunyg" xfId="13"/>
-    <cellStyle name="kuwsunyg_Alternate" xfId="14"/>
+    <cellStyle name="5qouphpg" xfId="11"/>
+    <cellStyle name="5qouphpg_Alternate" xfId="12"/>
+    <cellStyle name="upar3ymf" xfId="13"/>
+    <cellStyle name="upar3ymf_Alternate" xfId="14"/>
     <cellStyle name="LocalHeader0" xfId="15"/>
     <cellStyle name="LocalHeader0_Alternate" xfId="16"/>
     <cellStyle name="LocalHeader1" xfId="17"/>
@@ -697,7 +697,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a52addee-e032-4e43-83de-64e59bf6a713}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b3d27db4-ed80-4bf0-9923-a9e7c86f4e39}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
           <x14:colorSeries rgb="FFFF5733"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample02/Sample-02.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample02/Sample-02.xlsx
@@ -261,20 +261,20 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="og2s05uf" xfId="1"/>
-    <cellStyle name="og2s05uf_Alternate" xfId="2"/>
-    <cellStyle name="ag0chtbn" xfId="3"/>
-    <cellStyle name="ag0chtbn_Alternate" xfId="4"/>
-    <cellStyle name="acgsj1m4" xfId="5"/>
-    <cellStyle name="acgsj1m4_Alternate" xfId="6"/>
-    <cellStyle name="kfxmng1e" xfId="7"/>
-    <cellStyle name="kfxmng1e_Alternate" xfId="8"/>
+    <cellStyle name="qre5xcfp" xfId="1"/>
+    <cellStyle name="qre5xcfp_Alternate" xfId="2"/>
+    <cellStyle name="du13mkgk" xfId="3"/>
+    <cellStyle name="du13mkgk_Alternate" xfId="4"/>
+    <cellStyle name="kvh22re1" xfId="5"/>
+    <cellStyle name="kvh22re1_Alternate" xfId="6"/>
+    <cellStyle name="huoztzw3" xfId="7"/>
+    <cellStyle name="huoztzw3_Alternate" xfId="8"/>
     <cellStyle name="LocalHeader-1" xfId="9"/>
     <cellStyle name="LocalHeader-1_Alternate" xfId="10"/>
-    <cellStyle name="5qouphpg" xfId="11"/>
-    <cellStyle name="5qouphpg_Alternate" xfId="12"/>
-    <cellStyle name="upar3ymf" xfId="13"/>
-    <cellStyle name="upar3ymf_Alternate" xfId="14"/>
+    <cellStyle name="jaoypcmz" xfId="11"/>
+    <cellStyle name="jaoypcmz_Alternate" xfId="12"/>
+    <cellStyle name="wbi2l4dp" xfId="13"/>
+    <cellStyle name="wbi2l4dp_Alternate" xfId="14"/>
     <cellStyle name="LocalHeader0" xfId="15"/>
     <cellStyle name="LocalHeader0_Alternate" xfId="16"/>
     <cellStyle name="LocalHeader1" xfId="17"/>
@@ -697,7 +697,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b3d27db4-ed80-4bf0-9923-a9e7c86f4e39}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f74898e6-3885-4ff9-9e2d-186d837fcdf3}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
           <x14:colorSeries rgb="FFFF5733"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
